--- a/secret-students/checklist.xlsx
+++ b/secret-students/checklist.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/secret-students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DE36EA6-61D1-214A-9DC0-8CEECC68EB14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7195630-984E-A548-97C3-95BD779CE0EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{BC8350D5-4DF9-594A-8678-D61294C71B92}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>year</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>Secret Students in the Academic Armageddon</t>
-  </si>
-  <si>
-    <t>`</t>
   </si>
   <si>
     <t>Enterbrain</t>
@@ -445,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1433D6A-E43A-4F4A-9F50-5DAB7FC9D75D}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A5" sqref="A5:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -489,13 +486,13 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -503,19 +500,19 @@
         <v>2002</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -523,24 +520,19 @@
         <v>2002</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
